--- a/planilha_supply1.xlsx
+++ b/planilha_supply1.xlsx
@@ -538,9 +538,7 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -590,9 +588,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -642,9 +638,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -695,7 +689,7 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
@@ -738,9 +732,7 @@
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -782,9 +774,7 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -826,9 +816,7 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -870,9 +858,7 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -914,9 +900,7 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -958,9 +942,7 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1002,9 +984,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1046,9 +1026,7 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1090,9 +1068,7 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1134,9 +1110,7 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1178,9 +1152,7 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1222,9 +1194,7 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1266,9 +1236,7 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1310,9 +1278,7 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1354,9 +1320,7 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1398,9 +1362,7 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1442,9 +1404,7 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1486,9 +1446,7 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1530,9 +1488,7 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1574,9 +1530,7 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1618,9 +1572,7 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1662,9 +1614,7 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1706,9 +1656,7 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1750,9 +1698,7 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1794,9 +1740,7 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1838,9 +1782,7 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1882,9 +1824,7 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1934,9 +1874,7 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1986,9 +1924,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2038,9 +1974,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2090,9 +2024,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2134,9 +2066,7 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2178,9 +2108,7 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2222,9 +2150,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2266,9 +2192,7 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2310,9 +2234,7 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2354,9 +2276,7 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2398,9 +2318,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2442,9 +2360,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2486,9 +2402,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2530,9 +2444,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2574,9 +2486,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2618,9 +2528,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2662,9 +2570,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2706,9 +2612,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2750,9 +2654,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2794,9 +2696,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2838,9 +2738,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2882,9 +2780,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2934,9 +2830,7 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2986,9 +2880,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3038,9 +2930,7 @@
           <t>9.0</t>
         </is>
       </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3091,7 +2981,7 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59">
@@ -3142,9 +3032,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3194,9 +3082,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3246,9 +3132,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3290,9 +3174,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3334,9 +3216,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3378,9 +3258,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3422,9 +3300,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3466,9 +3342,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3510,9 +3384,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3554,9 +3426,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3598,9 +3468,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3642,9 +3510,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3686,9 +3552,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3730,9 +3594,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3774,9 +3636,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3818,9 +3678,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>0</v>
-      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3862,9 +3720,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>0</v>
-      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3906,9 +3762,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>0</v>
-      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3950,9 +3804,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>0</v>
-      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3994,9 +3846,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4038,9 +3888,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4082,9 +3930,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>0</v>
-      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4126,9 +3972,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4170,9 +4014,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>0</v>
-      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4214,9 +4056,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>0</v>
-      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4258,9 +4098,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>0</v>
-      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4302,9 +4140,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>0</v>
-      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -4346,9 +4182,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>0</v>
-      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -4390,9 +4224,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>0</v>
-      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4434,9 +4266,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>0</v>
-      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4478,9 +4308,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>0</v>
-      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4522,9 +4350,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>0</v>
-      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4566,9 +4392,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>0</v>
-      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4610,9 +4434,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>0</v>
-      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4654,9 +4476,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>0</v>
-      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4698,9 +4518,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4742,9 +4560,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>0</v>
-      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4786,9 +4602,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4830,9 +4644,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>0</v>
-      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4874,9 +4686,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4918,9 +4728,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4962,9 +4770,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>0</v>
-      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5006,9 +4812,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>0</v>
-      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5050,9 +4854,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>0</v>
-      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5094,9 +4896,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>0</v>
-      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5138,9 +4938,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>0</v>
-      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -5182,9 +4980,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>0</v>
-      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5226,9 +5022,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>0</v>
-      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -5270,9 +5064,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>0</v>
-      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5314,9 +5106,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>0</v>
-      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5358,9 +5148,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>0</v>
-      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -5402,9 +5190,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>0</v>
-      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5446,9 +5232,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>0</v>
-      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5490,9 +5274,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>0</v>
-      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5534,9 +5316,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>0</v>
-      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5578,9 +5358,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>0</v>
-      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5622,9 +5400,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>0</v>
-      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5666,9 +5442,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>0</v>
-      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5710,9 +5484,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>0</v>
-      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5754,9 +5526,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5798,9 +5568,7 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5842,9 +5610,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5886,9 +5652,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5930,9 +5694,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5974,9 +5736,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>0</v>
-      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -6026,9 +5786,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L124" t="n">
-        <v>0</v>
-      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6078,9 +5836,7 @@
           <t>3.0</t>
         </is>
       </c>
-      <c r="L125" t="n">
-        <v>0</v>
-      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -6130,9 +5886,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L126" t="n">
-        <v>0</v>
-      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6182,9 +5936,7 @@
           <t>3.0</t>
         </is>
       </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6226,9 +5978,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>0</v>
-      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -6270,9 +6020,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -6314,9 +6062,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -6358,9 +6104,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -6402,9 +6146,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6446,9 +6188,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6490,9 +6230,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>0</v>
-      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6534,9 +6272,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>0</v>
-      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6578,9 +6314,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>0</v>
-      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6622,9 +6356,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>0</v>
-      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6666,9 +6398,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>0</v>
-      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6710,9 +6440,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>0</v>
-      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6754,9 +6482,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>0</v>
-      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6798,9 +6524,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>0</v>
-      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6842,9 +6566,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>0</v>
-      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6886,9 +6608,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>0</v>
-      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6930,9 +6650,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>0</v>
-      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6974,9 +6692,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>0</v>
-      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -7018,9 +6734,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>0</v>
-      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -7062,9 +6776,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>0</v>
-      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -7106,9 +6818,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>0</v>
-      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -7150,9 +6860,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>0</v>
-      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7194,9 +6902,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>0</v>
-      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -7238,9 +6944,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>0</v>
-      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -7282,9 +6986,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>0</v>
-      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -7326,9 +7028,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>0</v>
-      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -7370,9 +7070,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>0</v>
-      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -7414,9 +7112,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>0</v>
-      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7458,9 +7154,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>0</v>
-      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -7502,9 +7196,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>0</v>
-      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7546,9 +7238,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>0</v>
-      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7590,9 +7280,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>0</v>
-      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7634,9 +7322,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>0</v>
-      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7678,9 +7364,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>0</v>
-      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7722,9 +7406,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>0</v>
-      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7766,9 +7448,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>0</v>
-      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7810,9 +7490,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>0</v>
-      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7862,9 +7540,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L165" t="n">
-        <v>0</v>
-      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7914,9 +7590,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L166" t="n">
-        <v>0</v>
-      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7966,9 +7640,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L167" t="n">
-        <v>0</v>
-      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8010,9 +7682,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>0</v>
-      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8054,9 +7724,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>0</v>
-      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8098,9 +7766,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>0</v>
-      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8142,9 +7808,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>0</v>
-      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8194,9 +7858,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>0</v>
-      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -8246,9 +7908,7 @@
           <t>6.0</t>
         </is>
       </c>
-      <c r="L173" t="n">
-        <v>0</v>
-      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -8290,9 +7950,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>0</v>
-      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8342,9 +8000,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L175" t="n">
-        <v>0</v>
-      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -8394,9 +8050,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L176" t="n">
-        <v>0</v>
-      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -8438,9 +8092,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>0</v>
-      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -8482,9 +8134,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>0</v>
-      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -8526,9 +8176,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>0</v>
-      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -8570,9 +8218,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>0</v>
-      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -8614,9 +8260,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>0</v>
-      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8658,9 +8302,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>0</v>
-      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8702,9 +8344,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>0</v>
-      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8746,9 +8386,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>0</v>
-      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8799,7 +8437,7 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="186">
@@ -8842,9 +8480,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>0</v>
-      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8886,9 +8522,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>0</v>
-      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8930,9 +8564,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>0</v>
-      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8974,9 +8606,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>0</v>
-      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -9018,9 +8648,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>0</v>
-      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -9062,9 +8690,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>0</v>
-      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -9114,9 +8740,7 @@
           <t>9.0</t>
         </is>
       </c>
-      <c r="L192" t="n">
-        <v>0</v>
-      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9166,9 +8790,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L193" t="n">
-        <v>0</v>
-      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -9210,9 +8832,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>0</v>
-      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -9254,9 +8874,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>0</v>
-      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -9298,9 +8916,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>0</v>
-      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -9342,9 +8958,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>0</v>
-      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -9386,9 +9000,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>0</v>
-      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -9430,9 +9042,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>0</v>
-      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -9474,9 +9084,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>0</v>
-      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -9518,9 +9126,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>0</v>
-      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -9562,9 +9168,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>0</v>
-      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -9606,9 +9210,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>0</v>
-      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -9650,9 +9252,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>0</v>
-      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -9694,9 +9294,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>0</v>
-      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -9738,9 +9336,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>0</v>
-      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -9782,9 +9378,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>0</v>
-      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -9826,9 +9420,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>0</v>
-      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -9870,9 +9462,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>0</v>
-      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -9914,9 +9504,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>0</v>
-      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -9958,9 +9546,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>0</v>
-      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -10002,9 +9588,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>0</v>
-      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -10046,9 +9630,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>0</v>
-      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -10090,9 +9672,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>0</v>
-      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -10134,9 +9714,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>0</v>
-      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -10178,9 +9756,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>0</v>
-      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -10222,9 +9798,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>0</v>
-      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -10266,9 +9840,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>0</v>
-      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -10310,9 +9882,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>0</v>
-      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -10354,9 +9924,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>0</v>
-      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -10398,9 +9966,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>0</v>
-      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -10442,9 +10008,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>0</v>
-      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -10486,9 +10050,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>0</v>
-      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -10530,9 +10092,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>0</v>
-      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -10574,9 +10134,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>0</v>
-      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -10618,9 +10176,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>0</v>
-      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -10662,9 +10218,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>0</v>
-      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -10706,9 +10260,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>0</v>
-      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -10750,9 +10302,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>0</v>
-      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -10794,9 +10344,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>0</v>
-      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -10846,9 +10394,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L231" t="n">
-        <v>0</v>
-      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -10898,9 +10444,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L232" t="n">
-        <v>0</v>
-      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -10942,9 +10486,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>0</v>
-      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -10986,9 +10528,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>0</v>
-      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -11030,9 +10570,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>0</v>
-      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -11074,9 +10612,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>0</v>
-      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -11118,9 +10654,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>0</v>
-      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11162,9 +10696,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>0</v>
-      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -11206,9 +10738,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>0</v>
-      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -11250,9 +10780,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>0</v>
-      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -11294,9 +10822,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>0</v>
-      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -11338,9 +10864,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>0</v>
-      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -11382,9 +10906,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>0</v>
-      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -11426,9 +10948,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>0</v>
-      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -11470,9 +10990,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>0</v>
-      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -11522,9 +11040,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L246" t="n">
-        <v>0</v>
-      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -11574,9 +11090,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L247" t="n">
-        <v>0</v>
-      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11626,9 +11140,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L248" t="n">
-        <v>0</v>
-      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -11670,9 +11182,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>0</v>
-      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -11714,9 +11224,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>0</v>
-      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -11758,9 +11266,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>0</v>
-      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -11802,9 +11308,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>0</v>
-      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -11846,9 +11350,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>0</v>
-      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -11890,9 +11392,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>0</v>
-      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -11934,9 +11434,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>0</v>
-      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -11978,9 +11476,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>0</v>
-      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -12022,9 +11518,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>0</v>
-      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -12066,9 +11560,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>0</v>
-      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -12110,9 +11602,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>0</v>
-      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -12154,9 +11644,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>0</v>
-      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -12198,9 +11686,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>0</v>
-      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -12242,9 +11728,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>0</v>
-      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12286,9 +11770,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>0</v>
-      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -12330,9 +11812,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>0</v>
-      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -12374,9 +11854,7 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>0</v>
-      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -12418,9 +11896,7 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>0</v>
-      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -12462,9 +11938,7 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>0</v>
-      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -12506,9 +11980,7 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>0</v>
-      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -12550,9 +12022,7 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>0</v>
-      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -12594,9 +12064,7 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>0</v>
-      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -12638,9 +12106,7 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>0</v>
-      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -12682,9 +12148,7 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>0</v>
-      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -12726,9 +12190,7 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>0</v>
-      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -12770,9 +12232,7 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>0</v>
-      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -12814,9 +12274,7 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>0</v>
-      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -12866,9 +12324,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L276" t="n">
-        <v>0</v>
-      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -12918,9 +12374,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L277" t="n">
-        <v>0</v>
-      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -12970,9 +12424,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>0</v>
-      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -13022,9 +12474,7 @@
           <t>3.0</t>
         </is>
       </c>
-      <c r="L279" t="n">
-        <v>0</v>
-      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -13074,9 +12524,7 @@
           <t>3.0</t>
         </is>
       </c>
-      <c r="L280" t="n">
-        <v>0</v>
-      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -13126,9 +12574,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L281" t="n">
-        <v>0</v>
-      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -13178,9 +12624,7 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="L282" t="n">
-        <v>0</v>
-      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -13230,9 +12674,7 @@
           <t>8.0</t>
         </is>
       </c>
-      <c r="L283" t="n">
-        <v>0</v>
-      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -13274,9 +12716,7 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>0</v>
-      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -13318,9 +12758,7 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>0</v>
-      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -13362,9 +12800,7 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>0</v>
-      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -13406,9 +12842,7 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>0</v>
-      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -13450,9 +12884,7 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>0</v>
-      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -13494,9 +12926,7 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>0</v>
-      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -13538,9 +12968,7 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>0</v>
-      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -13582,9 +13010,7 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>0</v>
-      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -13626,9 +13052,7 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>0</v>
-      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -13670,9 +13094,7 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>0</v>
-      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -13714,9 +13136,7 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>0</v>
-      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -13758,9 +13178,7 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>0</v>
-      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -13802,9 +13220,7 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>0</v>
-      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -13846,9 +13262,7 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>0</v>
-      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -13890,9 +13304,7 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>0</v>
-      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -13934,9 +13346,7 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>0</v>
-      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -13978,9 +13388,7 @@
       </c>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>0</v>
-      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -14022,9 +13430,7 @@
       </c>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>0</v>
-      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -14066,9 +13472,7 @@
       </c>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>0</v>
-      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -14110,9 +13514,7 @@
       </c>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>0</v>
-      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -14154,9 +13556,7 @@
       </c>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>0</v>
-      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -14198,9 +13598,7 @@
       </c>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>0</v>
-      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -14242,9 +13640,7 @@
       </c>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>0</v>
-      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -14286,9 +13682,7 @@
       </c>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>0</v>
-      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -14330,9 +13724,7 @@
       </c>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>0</v>
-      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -14374,9 +13766,7 @@
       </c>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>0</v>
-      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -14418,9 +13808,7 @@
       </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>0</v>
-      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14462,9 +13850,7 @@
       </c>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>0</v>
-      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -14506,9 +13892,7 @@
       </c>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>0</v>
-      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -14558,9 +13942,7 @@
           <t>9.0</t>
         </is>
       </c>
-      <c r="L313" t="n">
-        <v>0</v>
-      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -14610,9 +13992,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L314" t="n">
-        <v>0</v>
-      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -14662,9 +14042,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L315" t="n">
-        <v>0</v>
-      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -14706,9 +14084,7 @@
       </c>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>0</v>
-      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -14750,9 +14126,7 @@
       </c>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>0</v>
-      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -14794,9 +14168,7 @@
       </c>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>0</v>
-      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -14838,9 +14210,7 @@
       </c>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>0</v>
-      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -14882,9 +14252,7 @@
       </c>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>0</v>
-      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -14926,9 +14294,7 @@
       </c>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>0</v>
-      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -14970,9 +14336,7 @@
       </c>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>0</v>
-      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -15014,9 +14378,7 @@
       </c>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>0</v>
-      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -15058,9 +14420,7 @@
       </c>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>0</v>
-      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -15102,9 +14462,7 @@
       </c>
       <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>0</v>
-      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -15146,9 +14504,7 @@
       </c>
       <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>0</v>
-      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -15190,9 +14546,7 @@
       </c>
       <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>0</v>
-      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -15234,9 +14588,7 @@
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>0</v>
-      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -15278,9 +14630,7 @@
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>0</v>
-      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -15322,9 +14672,7 @@
       </c>
       <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>0</v>
-      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -15366,9 +14714,7 @@
       </c>
       <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>0</v>
-      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -15410,9 +14756,7 @@
       </c>
       <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>0</v>
-      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -15454,9 +14798,7 @@
       </c>
       <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>0</v>
-      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -15498,9 +14840,7 @@
       </c>
       <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>0</v>
-      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -15542,9 +14882,7 @@
       </c>
       <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>0</v>
-      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -15586,9 +14924,7 @@
       </c>
       <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>0</v>
-      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -15630,9 +14966,7 @@
       </c>
       <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>0</v>
-      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -15674,9 +15008,7 @@
       </c>
       <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>0</v>
-      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -15718,9 +15050,7 @@
       </c>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>0</v>
-      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -15762,9 +15092,7 @@
       </c>
       <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>0</v>
-      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -15806,9 +15134,7 @@
       </c>
       <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>0</v>
-      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -15850,9 +15176,7 @@
       </c>
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>0</v>
-      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -15894,9 +15218,7 @@
       </c>
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>0</v>
-      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -15938,9 +15260,7 @@
       </c>
       <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>0</v>
-      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -15982,9 +15302,7 @@
       </c>
       <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>0</v>
-      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -16026,9 +15344,7 @@
       </c>
       <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>0</v>
-      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -16070,9 +15386,7 @@
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>0</v>
-      </c>
+      <c r="L347" t="inlineStr"/>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -16114,9 +15428,7 @@
       </c>
       <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>0</v>
-      </c>
+      <c r="L348" t="inlineStr"/>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -16158,9 +15470,7 @@
       </c>
       <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>0</v>
-      </c>
+      <c r="L349" t="inlineStr"/>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -16202,9 +15512,7 @@
       </c>
       <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>0</v>
-      </c>
+      <c r="L350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -16246,9 +15554,7 @@
       </c>
       <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>0</v>
-      </c>
+      <c r="L351" t="inlineStr"/>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -16290,9 +15596,7 @@
       </c>
       <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>0</v>
-      </c>
+      <c r="L352" t="inlineStr"/>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -16334,9 +15638,7 @@
       </c>
       <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>0</v>
-      </c>
+      <c r="L353" t="inlineStr"/>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -16378,9 +15680,7 @@
       </c>
       <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>0</v>
-      </c>
+      <c r="L354" t="inlineStr"/>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -16422,9 +15722,7 @@
       </c>
       <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>0</v>
-      </c>
+      <c r="L355" t="inlineStr"/>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -16466,9 +15764,7 @@
       </c>
       <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>0</v>
-      </c>
+      <c r="L356" t="inlineStr"/>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -16510,9 +15806,7 @@
       </c>
       <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>0</v>
-      </c>
+      <c r="L357" t="inlineStr"/>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -16554,9 +15848,7 @@
       </c>
       <c r="J358" t="inlineStr"/>
       <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>0</v>
-      </c>
+      <c r="L358" t="inlineStr"/>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -16606,9 +15898,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L359" t="n">
-        <v>0</v>
-      </c>
+      <c r="L359" t="inlineStr"/>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -16658,9 +15948,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L360" t="n">
-        <v>0</v>
-      </c>
+      <c r="L360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -16702,9 +15990,7 @@
       </c>
       <c r="J361" t="inlineStr"/>
       <c r="K361" t="inlineStr"/>
-      <c r="L361" t="n">
-        <v>0</v>
-      </c>
+      <c r="L361" t="inlineStr"/>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
@@ -16746,9 +16032,7 @@
       </c>
       <c r="J362" t="inlineStr"/>
       <c r="K362" t="inlineStr"/>
-      <c r="L362" t="n">
-        <v>0</v>
-      </c>
+      <c r="L362" t="inlineStr"/>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
@@ -16790,9 +16074,7 @@
       </c>
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
-      <c r="L363" t="n">
-        <v>0</v>
-      </c>
+      <c r="L363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
@@ -16834,9 +16116,7 @@
       </c>
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
-      <c r="L364" t="n">
-        <v>0</v>
-      </c>
+      <c r="L364" t="inlineStr"/>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
@@ -16878,9 +16158,7 @@
       </c>
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
-      <c r="L365" t="n">
-        <v>0</v>
-      </c>
+      <c r="L365" t="inlineStr"/>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
@@ -16922,9 +16200,7 @@
       </c>
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
-      <c r="L366" t="n">
-        <v>0</v>
-      </c>
+      <c r="L366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
@@ -16966,9 +16242,7 @@
       </c>
       <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
-      <c r="L367" t="n">
-        <v>0</v>
-      </c>
+      <c r="L367" t="inlineStr"/>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
@@ -17010,9 +16284,7 @@
       </c>
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
-      <c r="L368" t="n">
-        <v>0</v>
-      </c>
+      <c r="L368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
@@ -17062,9 +16334,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L369" t="n">
-        <v>0</v>
-      </c>
+      <c r="L369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
@@ -17114,9 +16384,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L370" t="n">
-        <v>0</v>
-      </c>
+      <c r="L370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
@@ -17166,9 +16434,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L371" t="n">
-        <v>0</v>
-      </c>
+      <c r="L371" t="inlineStr"/>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
@@ -17210,9 +16476,7 @@
       </c>
       <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
-      <c r="L372" t="n">
-        <v>0</v>
-      </c>
+      <c r="L372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
@@ -17254,9 +16518,7 @@
       </c>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>0</v>
-      </c>
+      <c r="L373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
@@ -17298,9 +16560,7 @@
       </c>
       <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr"/>
-      <c r="L374" t="n">
-        <v>0</v>
-      </c>
+      <c r="L374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -17342,9 +16602,7 @@
       </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr"/>
-      <c r="L375" t="n">
-        <v>0</v>
-      </c>
+      <c r="L375" t="inlineStr"/>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
@@ -17386,9 +16644,7 @@
       </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>0</v>
-      </c>
+      <c r="L376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
@@ -17430,9 +16686,7 @@
       </c>
       <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr"/>
-      <c r="L377" t="n">
-        <v>0</v>
-      </c>
+      <c r="L377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
@@ -17474,9 +16728,7 @@
       </c>
       <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr"/>
-      <c r="L378" t="n">
-        <v>0</v>
-      </c>
+      <c r="L378" t="inlineStr"/>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
@@ -17518,9 +16770,7 @@
       </c>
       <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr"/>
-      <c r="L379" t="n">
-        <v>0</v>
-      </c>
+      <c r="L379" t="inlineStr"/>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
@@ -17562,9 +16812,7 @@
       </c>
       <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr"/>
-      <c r="L380" t="n">
-        <v>0</v>
-      </c>
+      <c r="L380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
@@ -17606,9 +16854,7 @@
       </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr"/>
-      <c r="L381" t="n">
-        <v>0</v>
-      </c>
+      <c r="L381" t="inlineStr"/>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
@@ -17650,9 +16896,7 @@
       </c>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr"/>
-      <c r="L382" t="n">
-        <v>0</v>
-      </c>
+      <c r="L382" t="inlineStr"/>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
@@ -17694,9 +16938,7 @@
       </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr"/>
-      <c r="L383" t="n">
-        <v>0</v>
-      </c>
+      <c r="L383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
@@ -17738,9 +16980,7 @@
       </c>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr"/>
-      <c r="L384" t="n">
-        <v>0</v>
-      </c>
+      <c r="L384" t="inlineStr"/>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
@@ -17782,9 +17022,7 @@
       </c>
       <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr"/>
-      <c r="L385" t="n">
-        <v>0</v>
-      </c>
+      <c r="L385" t="inlineStr"/>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
@@ -17826,9 +17064,7 @@
       </c>
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
-      <c r="L386" t="n">
-        <v>0</v>
-      </c>
+      <c r="L386" t="inlineStr"/>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -17870,9 +17106,7 @@
       </c>
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
-      <c r="L387" t="n">
-        <v>0</v>
-      </c>
+      <c r="L387" t="inlineStr"/>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
@@ -17914,9 +17148,7 @@
       </c>
       <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr"/>
-      <c r="L388" t="n">
-        <v>0</v>
-      </c>
+      <c r="L388" t="inlineStr"/>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
@@ -17958,9 +17190,7 @@
       </c>
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
-      <c r="L389" t="n">
-        <v>0</v>
-      </c>
+      <c r="L389" t="inlineStr"/>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
@@ -18002,9 +17232,7 @@
       </c>
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
-      <c r="L390" t="n">
-        <v>0</v>
-      </c>
+      <c r="L390" t="inlineStr"/>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
@@ -18046,9 +17274,7 @@
       </c>
       <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr"/>
-      <c r="L391" t="n">
-        <v>0</v>
-      </c>
+      <c r="L391" t="inlineStr"/>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
@@ -18090,9 +17316,7 @@
       </c>
       <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr"/>
-      <c r="L392" t="n">
-        <v>0</v>
-      </c>
+      <c r="L392" t="inlineStr"/>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
@@ -18134,9 +17358,7 @@
       </c>
       <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
-      <c r="L393" t="n">
-        <v>0</v>
-      </c>
+      <c r="L393" t="inlineStr"/>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
@@ -18178,9 +17400,7 @@
       </c>
       <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr"/>
-      <c r="L394" t="n">
-        <v>0</v>
-      </c>
+      <c r="L394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
@@ -18222,9 +17442,7 @@
       </c>
       <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr"/>
-      <c r="L395" t="n">
-        <v>0</v>
-      </c>
+      <c r="L395" t="inlineStr"/>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
@@ -18266,9 +17484,7 @@
       </c>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr"/>
-      <c r="L396" t="n">
-        <v>0</v>
-      </c>
+      <c r="L396" t="inlineStr"/>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
@@ -18310,9 +17526,7 @@
       </c>
       <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr"/>
-      <c r="L397" t="n">
-        <v>0</v>
-      </c>
+      <c r="L397" t="inlineStr"/>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
@@ -18354,9 +17568,7 @@
       </c>
       <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr"/>
-      <c r="L398" t="n">
-        <v>0</v>
-      </c>
+      <c r="L398" t="inlineStr"/>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
@@ -18398,9 +17610,7 @@
       </c>
       <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr"/>
-      <c r="L399" t="n">
-        <v>0</v>
-      </c>
+      <c r="L399" t="inlineStr"/>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
@@ -18450,9 +17660,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L400" t="n">
-        <v>0</v>
-      </c>
+      <c r="L400" t="inlineStr"/>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
@@ -18503,7 +17711,7 @@
         </is>
       </c>
       <c r="L401" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402">
@@ -18546,9 +17754,7 @@
       </c>
       <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr"/>
-      <c r="L402" t="n">
-        <v>0</v>
-      </c>
+      <c r="L402" t="inlineStr"/>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
@@ -18590,9 +17796,7 @@
       </c>
       <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr"/>
-      <c r="L403" t="n">
-        <v>0</v>
-      </c>
+      <c r="L403" t="inlineStr"/>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
@@ -18634,9 +17838,7 @@
       </c>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr"/>
-      <c r="L404" t="n">
-        <v>0</v>
-      </c>
+      <c r="L404" t="inlineStr"/>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
@@ -18678,9 +17880,7 @@
       </c>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
-      <c r="L405" t="n">
-        <v>0</v>
-      </c>
+      <c r="L405" t="inlineStr"/>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
@@ -18722,9 +17922,7 @@
       </c>
       <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr"/>
-      <c r="L406" t="n">
-        <v>0</v>
-      </c>
+      <c r="L406" t="inlineStr"/>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
@@ -18766,9 +17964,7 @@
       </c>
       <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr"/>
-      <c r="L407" t="n">
-        <v>0</v>
-      </c>
+      <c r="L407" t="inlineStr"/>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
@@ -18810,9 +18006,7 @@
       </c>
       <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr"/>
-      <c r="L408" t="n">
-        <v>0</v>
-      </c>
+      <c r="L408" t="inlineStr"/>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
@@ -18854,9 +18048,7 @@
       </c>
       <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr"/>
-      <c r="L409" t="n">
-        <v>0</v>
-      </c>
+      <c r="L409" t="inlineStr"/>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
@@ -18898,9 +18090,7 @@
       </c>
       <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr"/>
-      <c r="L410" t="n">
-        <v>0</v>
-      </c>
+      <c r="L410" t="inlineStr"/>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
@@ -18942,9 +18132,7 @@
       </c>
       <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr"/>
-      <c r="L411" t="n">
-        <v>0</v>
-      </c>
+      <c r="L411" t="inlineStr"/>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
@@ -18986,9 +18174,7 @@
       </c>
       <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr"/>
-      <c r="L412" t="n">
-        <v>0</v>
-      </c>
+      <c r="L412" t="inlineStr"/>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
@@ -19030,9 +18216,7 @@
       </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr"/>
-      <c r="L413" t="n">
-        <v>0</v>
-      </c>
+      <c r="L413" t="inlineStr"/>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
@@ -19074,9 +18258,7 @@
       </c>
       <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr"/>
-      <c r="L414" t="n">
-        <v>0</v>
-      </c>
+      <c r="L414" t="inlineStr"/>
     </row>
     <row r="415">
       <c r="A415" s="1" t="n">
@@ -19118,9 +18300,7 @@
       </c>
       <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr"/>
-      <c r="L415" t="n">
-        <v>0</v>
-      </c>
+      <c r="L415" t="inlineStr"/>
     </row>
     <row r="416">
       <c r="A416" s="1" t="n">
@@ -19162,9 +18342,7 @@
       </c>
       <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr"/>
-      <c r="L416" t="n">
-        <v>0</v>
-      </c>
+      <c r="L416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" s="1" t="n">
@@ -19206,9 +18384,7 @@
       </c>
       <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr"/>
-      <c r="L417" t="n">
-        <v>0</v>
-      </c>
+      <c r="L417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" s="1" t="n">
@@ -19250,9 +18426,7 @@
       </c>
       <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr"/>
-      <c r="L418" t="n">
-        <v>0</v>
-      </c>
+      <c r="L418" t="inlineStr"/>
     </row>
     <row r="419">
       <c r="A419" s="1" t="n">
@@ -19294,9 +18468,7 @@
       </c>
       <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr"/>
-      <c r="L419" t="n">
-        <v>0</v>
-      </c>
+      <c r="L419" t="inlineStr"/>
     </row>
     <row r="420">
       <c r="A420" s="1" t="n">
@@ -19347,7 +18519,7 @@
         </is>
       </c>
       <c r="L420" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="421">
@@ -19399,7 +18571,7 @@
         </is>
       </c>
       <c r="L421" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
     </row>
     <row r="422">
@@ -19450,9 +18622,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L422" t="n">
-        <v>0</v>
-      </c>
+      <c r="L422" t="inlineStr"/>
     </row>
     <row r="423">
       <c r="A423" s="1" t="n">
@@ -19503,7 +18673,7 @@
         </is>
       </c>
       <c r="L423" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
     </row>
     <row r="424">
@@ -19555,7 +18725,7 @@
         </is>
       </c>
       <c r="L424" t="n">
-        <v>0</v>
+        <v>213</v>
       </c>
     </row>
     <row r="425">
@@ -19598,9 +18768,7 @@
       </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr"/>
-      <c r="L425" t="n">
-        <v>0</v>
-      </c>
+      <c r="L425" t="inlineStr"/>
     </row>
     <row r="426">
       <c r="A426" s="1" t="n">
@@ -19642,9 +18810,7 @@
       </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr"/>
-      <c r="L426" t="n">
-        <v>0</v>
-      </c>
+      <c r="L426" t="inlineStr"/>
     </row>
     <row r="427">
       <c r="A427" s="1" t="n">
@@ -19686,9 +18852,7 @@
       </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr"/>
-      <c r="L427" t="n">
-        <v>0</v>
-      </c>
+      <c r="L427" t="inlineStr"/>
     </row>
     <row r="428">
       <c r="A428" s="1" t="n">
@@ -19730,9 +18894,7 @@
       </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr"/>
-      <c r="L428" t="n">
-        <v>0</v>
-      </c>
+      <c r="L428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" s="1" t="n">
@@ -19774,9 +18936,7 @@
       </c>
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr"/>
-      <c r="L429" t="n">
-        <v>0</v>
-      </c>
+      <c r="L429" t="inlineStr"/>
     </row>
     <row r="430">
       <c r="A430" s="1" t="n">
@@ -19818,9 +18978,7 @@
       </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr"/>
-      <c r="L430" t="n">
-        <v>0</v>
-      </c>
+      <c r="L430" t="inlineStr"/>
     </row>
     <row r="431">
       <c r="A431" s="1" t="n">
@@ -19862,9 +19020,7 @@
       </c>
       <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr"/>
-      <c r="L431" t="n">
-        <v>0</v>
-      </c>
+      <c r="L431" t="inlineStr"/>
     </row>
     <row r="432">
       <c r="A432" s="1" t="n">
@@ -19906,9 +19062,7 @@
       </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr"/>
-      <c r="L432" t="n">
-        <v>0</v>
-      </c>
+      <c r="L432" t="inlineStr"/>
     </row>
     <row r="433">
       <c r="A433" s="1" t="n">
@@ -19950,9 +19104,7 @@
       </c>
       <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr"/>
-      <c r="L433" t="n">
-        <v>0</v>
-      </c>
+      <c r="L433" t="inlineStr"/>
     </row>
     <row r="434">
       <c r="A434" s="1" t="n">
@@ -19994,9 +19146,7 @@
       </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr"/>
-      <c r="L434" t="n">
-        <v>0</v>
-      </c>
+      <c r="L434" t="inlineStr"/>
     </row>
     <row r="435">
       <c r="A435" s="1" t="n">
@@ -20038,9 +19188,7 @@
       </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr"/>
-      <c r="L435" t="n">
-        <v>0</v>
-      </c>
+      <c r="L435" t="inlineStr"/>
     </row>
     <row r="436">
       <c r="A436" s="1" t="n">
@@ -20082,9 +19230,7 @@
       </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr"/>
-      <c r="L436" t="n">
-        <v>0</v>
-      </c>
+      <c r="L436" t="inlineStr"/>
     </row>
     <row r="437">
       <c r="A437" s="1" t="n">
@@ -20126,9 +19272,7 @@
       </c>
       <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr"/>
-      <c r="L437" t="n">
-        <v>0</v>
-      </c>
+      <c r="L437" t="inlineStr"/>
     </row>
     <row r="438">
       <c r="A438" s="1" t="n">
@@ -20178,9 +19322,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L438" t="n">
-        <v>0</v>
-      </c>
+      <c r="L438" t="inlineStr"/>
     </row>
     <row r="439">
       <c r="A439" s="1" t="n">
@@ -20230,9 +19372,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L439" t="n">
-        <v>0</v>
-      </c>
+      <c r="L439" t="inlineStr"/>
     </row>
     <row r="440">
       <c r="A440" s="1" t="n">
@@ -20274,9 +19414,7 @@
       </c>
       <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr"/>
-      <c r="L440" t="n">
-        <v>0</v>
-      </c>
+      <c r="L440" t="inlineStr"/>
     </row>
     <row r="441">
       <c r="A441" s="1" t="n">
@@ -20318,9 +19456,7 @@
       </c>
       <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr"/>
-      <c r="L441" t="n">
-        <v>0</v>
-      </c>
+      <c r="L441" t="inlineStr"/>
     </row>
     <row r="442">
       <c r="A442" s="1" t="n">
@@ -20362,9 +19498,7 @@
       </c>
       <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr"/>
-      <c r="L442" t="n">
-        <v>0</v>
-      </c>
+      <c r="L442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" s="1" t="n">
@@ -20406,9 +19540,7 @@
       </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr"/>
-      <c r="L443" t="n">
-        <v>0</v>
-      </c>
+      <c r="L443" t="inlineStr"/>
     </row>
     <row r="444">
       <c r="A444" s="1" t="n">
@@ -20450,9 +19582,7 @@
       </c>
       <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr"/>
-      <c r="L444" t="n">
-        <v>0</v>
-      </c>
+      <c r="L444" t="inlineStr"/>
     </row>
     <row r="445">
       <c r="A445" s="1" t="n">
@@ -20494,9 +19624,7 @@
       </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr"/>
-      <c r="L445" t="n">
-        <v>0</v>
-      </c>
+      <c r="L445" t="inlineStr"/>
     </row>
     <row r="446">
       <c r="A446" s="1" t="n">
@@ -20538,9 +19666,7 @@
       </c>
       <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr"/>
-      <c r="L446" t="n">
-        <v>0</v>
-      </c>
+      <c r="L446" t="inlineStr"/>
     </row>
     <row r="447">
       <c r="A447" s="1" t="n">
@@ -20582,9 +19708,7 @@
       </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr"/>
-      <c r="L447" t="n">
-        <v>0</v>
-      </c>
+      <c r="L447" t="inlineStr"/>
     </row>
     <row r="448">
       <c r="A448" s="1" t="n">
@@ -20626,9 +19750,7 @@
       </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr"/>
-      <c r="L448" t="n">
-        <v>0</v>
-      </c>
+      <c r="L448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" s="1" t="n">
@@ -20670,9 +19792,7 @@
       </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr"/>
-      <c r="L449" t="n">
-        <v>0</v>
-      </c>
+      <c r="L449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -20714,9 +19834,7 @@
       </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr"/>
-      <c r="L450" t="n">
-        <v>0</v>
-      </c>
+      <c r="L450" t="inlineStr"/>
     </row>
     <row r="451">
       <c r="A451" s="1" t="n">
@@ -20758,9 +19876,7 @@
       </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr"/>
-      <c r="L451" t="n">
-        <v>0</v>
-      </c>
+      <c r="L451" t="inlineStr"/>
     </row>
     <row r="452">
       <c r="A452" s="1" t="n">
@@ -20802,9 +19918,7 @@
       </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr"/>
-      <c r="L452" t="n">
-        <v>0</v>
-      </c>
+      <c r="L452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" s="1" t="n">
@@ -20846,9 +19960,7 @@
       </c>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr"/>
-      <c r="L453" t="n">
-        <v>0</v>
-      </c>
+      <c r="L453" t="inlineStr"/>
     </row>
     <row r="454">
       <c r="A454" s="1" t="n">
@@ -20890,9 +20002,7 @@
       </c>
       <c r="J454" t="inlineStr"/>
       <c r="K454" t="inlineStr"/>
-      <c r="L454" t="n">
-        <v>0</v>
-      </c>
+      <c r="L454" t="inlineStr"/>
     </row>
     <row r="455">
       <c r="A455" s="1" t="n">
@@ -20934,9 +20044,7 @@
       </c>
       <c r="J455" t="inlineStr"/>
       <c r="K455" t="inlineStr"/>
-      <c r="L455" t="n">
-        <v>0</v>
-      </c>
+      <c r="L455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" s="1" t="n">
@@ -20978,9 +20086,7 @@
       </c>
       <c r="J456" t="inlineStr"/>
       <c r="K456" t="inlineStr"/>
-      <c r="L456" t="n">
-        <v>0</v>
-      </c>
+      <c r="L456" t="inlineStr"/>
     </row>
     <row r="457">
       <c r="A457" s="1" t="n">
@@ -21022,9 +20128,7 @@
       </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr"/>
-      <c r="L457" t="n">
-        <v>0</v>
-      </c>
+      <c r="L457" t="inlineStr"/>
     </row>
     <row r="458">
       <c r="A458" s="1" t="n">
@@ -21074,9 +20178,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L458" t="n">
-        <v>0</v>
-      </c>
+      <c r="L458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" s="1" t="n">
@@ -21127,7 +20229,7 @@
         </is>
       </c>
       <c r="L459" t="n">
-        <v>0</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="460">
@@ -21170,9 +20272,7 @@
       </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr"/>
-      <c r="L460" t="n">
-        <v>0</v>
-      </c>
+      <c r="L460" t="inlineStr"/>
     </row>
     <row r="461">
       <c r="A461" s="1" t="n">
@@ -21214,9 +20314,7 @@
       </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr"/>
-      <c r="L461" t="n">
-        <v>0</v>
-      </c>
+      <c r="L461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" s="1" t="n">
@@ -21258,9 +20356,7 @@
       </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr"/>
-      <c r="L462" t="n">
-        <v>0</v>
-      </c>
+      <c r="L462" t="inlineStr"/>
     </row>
     <row r="463">
       <c r="A463" s="1" t="n">
@@ -21302,9 +20398,7 @@
       </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr"/>
-      <c r="L463" t="n">
-        <v>0</v>
-      </c>
+      <c r="L463" t="inlineStr"/>
     </row>
     <row r="464">
       <c r="A464" s="1" t="n">
@@ -21346,9 +20440,7 @@
       </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr"/>
-      <c r="L464" t="n">
-        <v>0</v>
-      </c>
+      <c r="L464" t="inlineStr"/>
     </row>
     <row r="465">
       <c r="A465" s="1" t="n">
@@ -21390,9 +20482,7 @@
       </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr"/>
-      <c r="L465" t="n">
-        <v>0</v>
-      </c>
+      <c r="L465" t="inlineStr"/>
     </row>
     <row r="466">
       <c r="A466" s="1" t="n">
@@ -21434,9 +20524,7 @@
       </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr"/>
-      <c r="L466" t="n">
-        <v>0</v>
-      </c>
+      <c r="L466" t="inlineStr"/>
     </row>
     <row r="467">
       <c r="A467" s="1" t="n">
@@ -21478,9 +20566,7 @@
       </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr"/>
-      <c r="L467" t="n">
-        <v>0</v>
-      </c>
+      <c r="L467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" s="1" t="n">
@@ -21522,9 +20608,7 @@
       </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr"/>
-      <c r="L468" t="n">
-        <v>0</v>
-      </c>
+      <c r="L468" t="inlineStr"/>
     </row>
     <row r="469">
       <c r="A469" s="1" t="n">
@@ -21566,9 +20650,7 @@
       </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr"/>
-      <c r="L469" t="n">
-        <v>0</v>
-      </c>
+      <c r="L469" t="inlineStr"/>
     </row>
     <row r="470">
       <c r="A470" s="1" t="n">
@@ -21610,9 +20692,7 @@
       </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr"/>
-      <c r="L470" t="n">
-        <v>0</v>
-      </c>
+      <c r="L470" t="inlineStr"/>
     </row>
     <row r="471">
       <c r="A471" s="1" t="n">
@@ -21654,9 +20734,7 @@
       </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr"/>
-      <c r="L471" t="n">
-        <v>0</v>
-      </c>
+      <c r="L471" t="inlineStr"/>
     </row>
     <row r="472">
       <c r="A472" s="1" t="n">
@@ -21698,9 +20776,7 @@
       </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr"/>
-      <c r="L472" t="n">
-        <v>0</v>
-      </c>
+      <c r="L472" t="inlineStr"/>
     </row>
     <row r="473">
       <c r="A473" s="1" t="n">
@@ -21742,9 +20818,7 @@
       </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr"/>
-      <c r="L473" t="n">
-        <v>0</v>
-      </c>
+      <c r="L473" t="inlineStr"/>
     </row>
     <row r="474">
       <c r="A474" s="1" t="n">
@@ -21786,9 +20860,7 @@
       </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr"/>
-      <c r="L474" t="n">
-        <v>0</v>
-      </c>
+      <c r="L474" t="inlineStr"/>
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
@@ -21838,9 +20910,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L475" t="n">
-        <v>0</v>
-      </c>
+      <c r="L475" t="inlineStr"/>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
@@ -21891,7 +20961,7 @@
         </is>
       </c>
       <c r="L476" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="477">
@@ -21934,9 +21004,7 @@
       </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr"/>
-      <c r="L477" t="n">
-        <v>0</v>
-      </c>
+      <c r="L477" t="inlineStr"/>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
@@ -21978,9 +21046,7 @@
       </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr"/>
-      <c r="L478" t="n">
-        <v>0</v>
-      </c>
+      <c r="L478" t="inlineStr"/>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
@@ -22030,9 +21096,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L479" t="n">
-        <v>0</v>
-      </c>
+      <c r="L479" t="inlineStr"/>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
@@ -22082,9 +21146,7 @@
           <t>4.0</t>
         </is>
       </c>
-      <c r="L480" t="n">
-        <v>0</v>
-      </c>
+      <c r="L480" t="inlineStr"/>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
@@ -22134,9 +21196,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L481" t="n">
-        <v>0</v>
-      </c>
+      <c r="L481" t="inlineStr"/>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
@@ -22178,9 +21238,7 @@
       </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr"/>
-      <c r="L482" t="n">
-        <v>0</v>
-      </c>
+      <c r="L482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
@@ -22222,9 +21280,7 @@
       </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr"/>
-      <c r="L483" t="n">
-        <v>0</v>
-      </c>
+      <c r="L483" t="inlineStr"/>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
@@ -22266,9 +21322,7 @@
       </c>
       <c r="J484" t="inlineStr"/>
       <c r="K484" t="inlineStr"/>
-      <c r="L484" t="n">
-        <v>0</v>
-      </c>
+      <c r="L484" t="inlineStr"/>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
@@ -22310,9 +21364,7 @@
       </c>
       <c r="J485" t="inlineStr"/>
       <c r="K485" t="inlineStr"/>
-      <c r="L485" t="n">
-        <v>0</v>
-      </c>
+      <c r="L485" t="inlineStr"/>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
@@ -22354,9 +21406,7 @@
       </c>
       <c r="J486" t="inlineStr"/>
       <c r="K486" t="inlineStr"/>
-      <c r="L486" t="n">
-        <v>0</v>
-      </c>
+      <c r="L486" t="inlineStr"/>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
@@ -22398,9 +21448,7 @@
       </c>
       <c r="J487" t="inlineStr"/>
       <c r="K487" t="inlineStr"/>
-      <c r="L487" t="n">
-        <v>0</v>
-      </c>
+      <c r="L487" t="inlineStr"/>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
@@ -22442,9 +21490,7 @@
       </c>
       <c r="J488" t="inlineStr"/>
       <c r="K488" t="inlineStr"/>
-      <c r="L488" t="n">
-        <v>0</v>
-      </c>
+      <c r="L488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
@@ -22486,9 +21532,7 @@
       </c>
       <c r="J489" t="inlineStr"/>
       <c r="K489" t="inlineStr"/>
-      <c r="L489" t="n">
-        <v>0</v>
-      </c>
+      <c r="L489" t="inlineStr"/>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
@@ -22530,9 +21574,7 @@
       </c>
       <c r="J490" t="inlineStr"/>
       <c r="K490" t="inlineStr"/>
-      <c r="L490" t="n">
-        <v>0</v>
-      </c>
+      <c r="L490" t="inlineStr"/>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
@@ -22574,9 +21616,7 @@
       </c>
       <c r="J491" t="inlineStr"/>
       <c r="K491" t="inlineStr"/>
-      <c r="L491" t="n">
-        <v>0</v>
-      </c>
+      <c r="L491" t="inlineStr"/>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
@@ -22618,9 +21658,7 @@
       </c>
       <c r="J492" t="inlineStr"/>
       <c r="K492" t="inlineStr"/>
-      <c r="L492" t="n">
-        <v>0</v>
-      </c>
+      <c r="L492" t="inlineStr"/>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
@@ -22662,9 +21700,7 @@
       </c>
       <c r="J493" t="inlineStr"/>
       <c r="K493" t="inlineStr"/>
-      <c r="L493" t="n">
-        <v>0</v>
-      </c>
+      <c r="L493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
@@ -22706,9 +21742,7 @@
       </c>
       <c r="J494" t="inlineStr"/>
       <c r="K494" t="inlineStr"/>
-      <c r="L494" t="n">
-        <v>0</v>
-      </c>
+      <c r="L494" t="inlineStr"/>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
@@ -22750,9 +21784,7 @@
       </c>
       <c r="J495" t="inlineStr"/>
       <c r="K495" t="inlineStr"/>
-      <c r="L495" t="n">
-        <v>0</v>
-      </c>
+      <c r="L495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
@@ -22794,9 +21826,7 @@
       </c>
       <c r="J496" t="inlineStr"/>
       <c r="K496" t="inlineStr"/>
-      <c r="L496" t="n">
-        <v>0</v>
-      </c>
+      <c r="L496" t="inlineStr"/>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
@@ -22838,9 +21868,7 @@
       </c>
       <c r="J497" t="inlineStr"/>
       <c r="K497" t="inlineStr"/>
-      <c r="L497" t="n">
-        <v>0</v>
-      </c>
+      <c r="L497" t="inlineStr"/>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
@@ -22882,9 +21910,7 @@
       </c>
       <c r="J498" t="inlineStr"/>
       <c r="K498" t="inlineStr"/>
-      <c r="L498" t="n">
-        <v>0</v>
-      </c>
+      <c r="L498" t="inlineStr"/>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
@@ -22934,9 +21960,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L499" t="n">
-        <v>0</v>
-      </c>
+      <c r="L499" t="inlineStr"/>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
@@ -22986,9 +22010,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L500" t="n">
-        <v>0</v>
-      </c>
+      <c r="L500" t="inlineStr"/>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
@@ -23030,9 +22052,7 @@
       </c>
       <c r="J501" t="inlineStr"/>
       <c r="K501" t="inlineStr"/>
-      <c r="L501" t="n">
-        <v>0</v>
-      </c>
+      <c r="L501" t="inlineStr"/>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
@@ -23074,9 +22094,7 @@
       </c>
       <c r="J502" t="inlineStr"/>
       <c r="K502" t="inlineStr"/>
-      <c r="L502" t="n">
-        <v>0</v>
-      </c>
+      <c r="L502" t="inlineStr"/>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
@@ -23118,9 +22136,7 @@
       </c>
       <c r="J503" t="inlineStr"/>
       <c r="K503" t="inlineStr"/>
-      <c r="L503" t="n">
-        <v>0</v>
-      </c>
+      <c r="L503" t="inlineStr"/>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
@@ -23162,9 +22178,7 @@
       </c>
       <c r="J504" t="inlineStr"/>
       <c r="K504" t="inlineStr"/>
-      <c r="L504" t="n">
-        <v>0</v>
-      </c>
+      <c r="L504" t="inlineStr"/>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
@@ -23206,9 +22220,7 @@
       </c>
       <c r="J505" t="inlineStr"/>
       <c r="K505" t="inlineStr"/>
-      <c r="L505" t="n">
-        <v>0</v>
-      </c>
+      <c r="L505" t="inlineStr"/>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
@@ -23250,9 +22262,7 @@
       </c>
       <c r="J506" t="inlineStr"/>
       <c r="K506" t="inlineStr"/>
-      <c r="L506" t="n">
-        <v>0</v>
-      </c>
+      <c r="L506" t="inlineStr"/>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
@@ -23294,9 +22304,7 @@
       </c>
       <c r="J507" t="inlineStr"/>
       <c r="K507" t="inlineStr"/>
-      <c r="L507" t="n">
-        <v>0</v>
-      </c>
+      <c r="L507" t="inlineStr"/>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
@@ -23338,9 +22346,7 @@
       </c>
       <c r="J508" t="inlineStr"/>
       <c r="K508" t="inlineStr"/>
-      <c r="L508" t="n">
-        <v>0</v>
-      </c>
+      <c r="L508" t="inlineStr"/>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
@@ -23382,9 +22388,7 @@
       </c>
       <c r="J509" t="inlineStr"/>
       <c r="K509" t="inlineStr"/>
-      <c r="L509" t="n">
-        <v>0</v>
-      </c>
+      <c r="L509" t="inlineStr"/>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
@@ -23426,9 +22430,7 @@
       </c>
       <c r="J510" t="inlineStr"/>
       <c r="K510" t="inlineStr"/>
-      <c r="L510" t="n">
-        <v>0</v>
-      </c>
+      <c r="L510" t="inlineStr"/>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
@@ -23470,9 +22472,7 @@
       </c>
       <c r="J511" t="inlineStr"/>
       <c r="K511" t="inlineStr"/>
-      <c r="L511" t="n">
-        <v>0</v>
-      </c>
+      <c r="L511" t="inlineStr"/>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
@@ -23522,9 +22522,7 @@
           <t>0.0</t>
         </is>
       </c>
-      <c r="L512" t="n">
-        <v>0</v>
-      </c>
+      <c r="L512" t="inlineStr"/>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
@@ -23566,9 +22564,7 @@
       </c>
       <c r="J513" t="inlineStr"/>
       <c r="K513" t="inlineStr"/>
-      <c r="L513" t="n">
-        <v>0</v>
-      </c>
+      <c r="L513" t="inlineStr"/>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
@@ -23610,9 +22606,7 @@
       </c>
       <c r="J514" t="inlineStr"/>
       <c r="K514" t="inlineStr"/>
-      <c r="L514" t="n">
-        <v>0</v>
-      </c>
+      <c r="L514" t="inlineStr"/>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
@@ -23654,9 +22648,7 @@
       </c>
       <c r="J515" t="inlineStr"/>
       <c r="K515" t="inlineStr"/>
-      <c r="L515" t="n">
-        <v>0</v>
-      </c>
+      <c r="L515" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
